--- a/data/income_statement/1digit/size/H_IS_LARGE.xlsx
+++ b/data/income_statement/1digit/size/H_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>H-Transporting and storage</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>H-Transporting and storage</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1115 +841,1260 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>53084496.67938999</v>
+        <v>51798325.51405</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>59561802.75812</v>
+        <v>58017767.35779999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>83056478.04581</v>
+        <v>81327206.14867</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>102108742.1653</v>
+        <v>100239694.59139</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>105723478.47372</v>
+        <v>103544381.86135</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>122142967.25104</v>
+        <v>123262056.19188</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>133206588.081</v>
+        <v>139000632.59866</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>143566037.48516</v>
+        <v>141496971.01776</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>191749981.29833</v>
+        <v>188384309.0296201</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>243849148.5952</v>
+        <v>240279445.64079</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>303231490.8126901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>298324134.4299</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>274564966.713</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>37523841.27203999</v>
+        <v>37016941.56214</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>40544018.52183</v>
+        <v>39875012.30102</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>57184045.83276001</v>
+        <v>56449596.86519</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>70057643.59313001</v>
+        <v>69105224.25091998</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>69175065.29457998</v>
+        <v>68052934.66127001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>80104580.54534999</v>
+        <v>80496842.84798001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>84943629.49357</v>
+        <v>88913266.22223999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>90948948.00009999</v>
+        <v>89734363.15664999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>117012675.80424</v>
+        <v>114896114.23681</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>139225104.09187</v>
+        <v>136810537.04039</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>173593956.02923</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>170250290.98106</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>182651262.721</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>14162709.37764</v>
+        <v>13404394.41485</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>17487020.38614</v>
+        <v>16647515.02379</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>23694762.24481</v>
+        <v>22787063.93881</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>29781967.60806</v>
+        <v>28927104.48738</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>33942979.939</v>
+        <v>32946925.25316</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>39722388.58539</v>
+        <v>40498404.36694999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>45398748.15763</v>
+        <v>47307667.89009</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>49246368.04121</v>
+        <v>48483692.91914999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>70203456.85427999</v>
+        <v>69187632.82872002</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>99195406.51202002</v>
+        <v>98124080.92353001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>122196635.64808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>120775272.29561</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>86276375.215</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1397946.02971</v>
+        <v>1376989.53706</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1530763.85015</v>
+        <v>1495240.03299</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2177669.96824</v>
+        <v>2090545.34467</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2269130.96411</v>
+        <v>2207365.85309</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2605433.24014</v>
+        <v>2544521.94692</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2315998.1203</v>
+        <v>2266808.97695</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2864210.4298</v>
+        <v>2779698.48633</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>3370721.44385</v>
+        <v>3278914.94196</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>4533848.639810001</v>
+        <v>4300561.96409</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>5428637.99131</v>
+        <v>5344827.67687</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>7440899.135379998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>7298571.153229999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>5637328.777</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>458273.7939699999</v>
+        <v>452246.15958</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>477066.5611</v>
+        <v>466771.40238</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>783831.7394699999</v>
+        <v>775693.93932</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>637305.13041</v>
+        <v>628868.37199</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>837122.85959</v>
+        <v>827436.8311000002</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>965531.2614900001</v>
+        <v>1022829.08725</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1008780.53336</v>
+        <v>1406214.45054</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1819313.71489</v>
+        <v>1793116.06269</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>3504898.72887</v>
+        <v>3421581.9433</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2931429.17872</v>
+        <v>2720364.13164</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>4303198.679900001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4079995.39604</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>3728659.574</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>234754.95646</v>
+        <v>229927.79683</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>218976.10124</v>
+        <v>214347.60652</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>265623.33232</v>
+        <v>262777.49857</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>271480.83788</v>
+        <v>268101.66609</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>421057.62472</v>
+        <v>415308.86485</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>487144.88563</v>
+        <v>497439.2184300001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>733240.8263199999</v>
+        <v>737699.9430200001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1000630.10791</v>
+        <v>984289.0578499999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>2395324.9626</v>
+        <v>2363526.37501</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1320915.05368</v>
+        <v>1235826.0098</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2256597.796980001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2175550.48082</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1786130.117</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>47767.07113</v>
+        <v>47494.01261999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>58954.7935</v>
+        <v>58522.61361</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>142414.80408</v>
+        <v>141686.04754</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>89850.77906999998</v>
+        <v>89283.01457000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>107813.85012</v>
+        <v>106684.53317</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>101411.71726</v>
+        <v>144932.0447</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>142175.79928</v>
+        <v>196015.34634</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>294531.20407</v>
+        <v>287810.18498</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>447276.19789</v>
+        <v>397361.05738</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>661649.96448</v>
+        <v>536552.30356</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>809423.12511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>668027.0209</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1012592.999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>175751.76638</v>
+        <v>174824.35013</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>199135.66636</v>
+        <v>193901.18225</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>375793.60307</v>
+        <v>371230.39321</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>275973.51346</v>
+        <v>271483.69133</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>308251.38475</v>
+        <v>305443.43308</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>376974.6586</v>
+        <v>380457.82412</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>133363.90776</v>
+        <v>472499.16118</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>524152.40291</v>
+        <v>521016.8198599999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>662297.56838</v>
+        <v>660694.51091</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>948864.1605600001</v>
+        <v>947985.8182799999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1237177.75781</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1236417.89432</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>929936.458</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>52626222.88542001</v>
+        <v>51346079.35447</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>59084736.19701999</v>
+        <v>57550995.95541999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>82272646.30633999</v>
+        <v>80551512.20935</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>101471437.03489</v>
+        <v>99610826.21939999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>104886355.61413</v>
+        <v>102716945.03025</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>121177435.98955</v>
+        <v>122239227.10463</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>132197807.54764</v>
+        <v>137594418.14812</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>141746723.77027</v>
+        <v>139703854.95507</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>188245082.56946</v>
+        <v>184962727.08632</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>240917719.41648</v>
+        <v>237559081.50915</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>298928292.13279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>294244139.03386</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>270836307.139</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>42790797.48608999</v>
+        <v>41697424.80438001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>52891861.28396</v>
+        <v>51526895.14466999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>76546267.97722001</v>
+        <v>75059053.52155</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>92381349.50079</v>
+        <v>90827628.89791</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>93824623.19669001</v>
+        <v>92126507.54637</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>109901465.51481</v>
+        <v>110872764.57409</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>113999720.61794</v>
+        <v>117403947.76886</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>119548617.67329</v>
+        <v>118034388.51615</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>164348714.5878</v>
+        <v>161791056.08452</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>215264283.50504</v>
+        <v>212901374.54032</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>259906159.30303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>255675300.22153</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>236915991.049</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>415754.9937</v>
+        <v>414334.1812700001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>188738.93536</v>
+        <v>188668.93347</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>398425.09336</v>
+        <v>392774.6058</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>145074.88949</v>
+        <v>114712.97548</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>629345.4582100001</v>
+        <v>622574.23599</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>471388.90486</v>
+        <v>450865.4662800001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2568996.95601</v>
+        <v>2520815.91754</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3880442.67051</v>
+        <v>3856737.09062</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>5969965.076110001</v>
+        <v>5868815.860000001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2924820.29411</v>
+        <v>2921761.03506</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>433728.06583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>417017.3134500001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>200951.349</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>15709266.78865</v>
+        <v>15652077.37938</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>18541042.28762</v>
+        <v>18498197.0042</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>29623294.85916</v>
+        <v>29601188.44375</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>35513434.93218999</v>
+        <v>35458866.78073</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>33806613.87158</v>
+        <v>33690285.8605</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>40548452.73421001</v>
+        <v>40599271.14667</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>36170463.3505</v>
+        <v>36110798.71512</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>24636730.52256</v>
+        <v>24509365.57111</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>39076637.74626999</v>
+        <v>38893348.03756999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>59895155.31751</v>
+        <v>59845572.56039</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>74153262.64791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>74074312.53786999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>65880742.735</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>26602984.49427</v>
+        <v>25570826.26853</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>33940746.08089</v>
+        <v>32619454.42758</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>46304006.90312</v>
+        <v>44863112.00261001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>56640862.93964</v>
+        <v>55196131.51784001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>59310134.40955</v>
+        <v>57779142.35319</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>68686969.5931</v>
+        <v>69633192.57039</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>75086778.63390002</v>
+        <v>78607715.14668</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>90868161.97937001</v>
+        <v>89526631.81951</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>119010868.65957</v>
+        <v>116804460.72165</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>152198305.49208</v>
+        <v>149908492.69429</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>184702214.44322</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>180832450.58319</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>170013609.536</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>62791.20947</v>
+        <v>60186.97519999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>221333.98009</v>
+        <v>220574.77942</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>220541.12158</v>
+        <v>201978.46939</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>81976.73947000001</v>
+        <v>57917.62385999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>78529.45735</v>
+        <v>34505.09669</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>194654.28264</v>
+        <v>189435.39075</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>173481.67753</v>
+        <v>164617.98952</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>163282.50085</v>
+        <v>141654.03491</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>291243.10585</v>
+        <v>224431.4653</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>246002.40134</v>
+        <v>225548.25058</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>616954.14607</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>351519.78702</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>820687.429</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>9835425.399329999</v>
+        <v>9648654.550089998</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>6192874.91306</v>
+        <v>6024100.810750001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>5726378.329120001</v>
+        <v>5492458.687800002</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>9090087.5341</v>
+        <v>8783197.321489999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>11061732.41744</v>
+        <v>10590437.48388</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>11275970.47474</v>
+        <v>11366462.53054</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>18198086.9297</v>
+        <v>20190470.37926</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>22198106.09698</v>
+        <v>21669466.43892</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>23896367.98166</v>
+        <v>23171671.0018</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>25653435.91144</v>
+        <v>24657706.96883</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>39022132.82975999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>38568838.81232999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>33920316.09</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>4942065.84262</v>
+        <v>4614277.54767</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>5250876.12302</v>
+        <v>4906764.956660001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>6728704.651430001</v>
+        <v>6342711.050909999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>7409934.956470001</v>
+        <v>7016275.524459999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>8546317.74461</v>
+        <v>8121702.709789999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>9435401.514420001</v>
+        <v>9122182.651129998</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>11154497.2732</v>
+        <v>11092885.11612</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>13708509.12174</v>
+        <v>13077899.09249</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>15970090.03858</v>
+        <v>15056772.94491</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>19247541.19947</v>
+        <v>18395981.57386</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>23936697.13684</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>22721688.20417999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>20856568.993</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2272.41156</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>2262.60008</v>
+        <v>2262.1433</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>8035.991049999999</v>
+        <v>3569.03125</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3909.08617</v>
+        <v>3908.03701</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>8733.62883</v>
+        <v>8704.954740000001</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>13072.28326</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>13580.44886</v>
+        <v>17914.62931</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>25037.21254</v>
+        <v>8634.854940000001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>15670.86767</v>
+        <v>15666.97677</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>23520.46065</v>
+        <v>23482.59177</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>29389.67178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>29276.11438</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>49432.112</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1691150.94959</v>
+        <v>1631772.47443</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1530394.41824</v>
+        <v>1514828.56068</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2025796.87725</v>
+        <v>1990814.71514</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2249895.73773</v>
+        <v>2229175.70332</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2768877.27961</v>
+        <v>2719394.60876</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>3360517.56542</v>
+        <v>3360987.527079999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>4167067.81857</v>
+        <v>4158437.18036</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>4696181.454390001</v>
+        <v>4652565.05879</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>5401290.80324</v>
+        <v>5346128.179029999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>7527940.247160001</v>
+        <v>7464933.782160001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>9580900.517550001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>9491196.67536</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5746588.684</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>3248642.48147</v>
+        <v>2980232.66168</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>3718219.1047</v>
+        <v>3389674.25268</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>4694871.78313</v>
+        <v>4348327.30452</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>5156130.13257</v>
+        <v>4783191.784130001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>5768706.83617</v>
+        <v>5393603.14629</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>6061811.665739999</v>
+        <v>5748122.840789999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>6973849.00577</v>
+        <v>6916533.306450001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>8987290.454809999</v>
+        <v>8416699.17876</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>10553128.36767</v>
+        <v>9694977.789110001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>11696080.49166</v>
+        <v>10907565.19993</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>14326406.94751</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>13201215.41444</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>15060548.197</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>4893359.556710001</v>
+        <v>5034377.00242</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>941998.7900399999</v>
+        <v>1117335.85409</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-1002326.32231</v>
+        <v>-850252.36311</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1680152.57763</v>
+        <v>1766921.79703</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2515414.67283</v>
+        <v>2468734.774089999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1840568.96032</v>
+        <v>2244279.879410001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>7043589.6565</v>
+        <v>9097585.26314</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>8489596.975240001</v>
+        <v>8591567.346429998</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>7926277.943080001</v>
+        <v>8114898.056890001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>6405894.71197</v>
+        <v>6261725.394969999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>15085435.69292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15847150.60815</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>13063747.097</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>6309468.686419999</v>
+        <v>5210151.400470001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>6100448.11095</v>
+        <v>5138798.423499999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>6921171.127080001</v>
+        <v>5923351.988600001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>7067905.58741</v>
+        <v>6042831.977890001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>8300562.99533</v>
+        <v>6819717.626809999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>14661360.84746</v>
+        <v>12740538.7037</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>30047896.48725</v>
+        <v>28010688.29565</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>24204385.2374</v>
+        <v>21976405.81770001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>34398180.14634001</v>
+        <v>31289158.72724</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>108749141.63717</v>
+        <v>102894058.90961</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>66463646.50011</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>62946892.23334</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>85837082.05599999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>164755.38091</v>
+        <v>65019.17865</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>247847.01884</v>
+        <v>95926.69228</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>250845.25736</v>
+        <v>69777.24786</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>314289.6253300001</v>
+        <v>107171.72713</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>443936.32184</v>
+        <v>105814.27837</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>535017.62553</v>
+        <v>191229.59557</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1085076.7822</v>
+        <v>238805.8387</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>467323.569</v>
+        <v>343618.5587000001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>377712.54877</v>
+        <v>256142.09082</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>447753.62377</v>
+        <v>425370.07769</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>817285.20857</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>612024.3035</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>64583.563</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>232525.32204</v>
+        <v>38452.33607</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>94252.4135</v>
+        <v>43349.29563</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>122267.65849</v>
+        <v>34307.76746</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>367342.98407</v>
+        <v>247651.51713</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>166495.43697</v>
+        <v>12762.86897</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>417248.66111</v>
+        <v>253177.7556</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>398829.3574</v>
+        <v>48586.68211</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>428876.82098</v>
+        <v>209116.1692</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1073989.54218</v>
+        <v>319238.96079</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>908307.17013</v>
+        <v>293417.96088</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2973628.647919999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2512521.9101</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>386881.851</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>875222.7621599999</v>
+        <v>802679.1439099999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>664610.0202099999</v>
+        <v>600397.78264</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>557705.57829</v>
+        <v>498357.60296</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>887996.67122</v>
+        <v>814893.8893299999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>854537.6865300001</v>
+        <v>748156.30097</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1136319.06314</v>
+        <v>1024714.18373</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1834809.8723</v>
+        <v>1729668.8166</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2024620.33434</v>
+        <v>1889181.37596</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2362551.70489</v>
+        <v>2154046.25449</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>3654575.792399999</v>
+        <v>3411367.22404</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>4245502.549190001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>3894810.957580001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>3698030.012</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>24036.96452</v>
+        <v>22166.8819</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>22146.10043</v>
+        <v>18674.27604</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>31734.26763</v>
+        <v>29932.234</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>35015.96001</v>
+        <v>33743.88859</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>50750.23744</v>
+        <v>48175.44898</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>65696.66012999999</v>
+        <v>57697.01916</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>56653.30862</v>
+        <v>62836.87174</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>72425.39528999999</v>
+        <v>71781.52103999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>68993.75304000001</v>
+        <v>53281.76854999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>85593.628</v>
+        <v>84128.76407999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>69224.62457</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>67500.1283</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>59090.48</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>284480.60174</v>
+        <v>282548.69856</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>113861.00428</v>
+        <v>112895.52841</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>71365.90276000001</v>
+        <v>68039.61667999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>29820.91144</v>
+        <v>29066.46959</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>50342.16169</v>
+        <v>41608.71818</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>33749.46851000001</v>
+        <v>32507.18115</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>41889.51770999999</v>
+        <v>35355.8599</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>100576.29114</v>
+        <v>97004.92998999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>67210.3091</v>
+        <v>63215.76696</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>927715.6492900001</v>
+        <v>926043.9385</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>162112.09675</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>153358.09454</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>194952.643</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>101412.46836</v>
+        <v>90669.34138</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>58239.94984</v>
+        <v>32879.86937</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>76020.93120000001</v>
+        <v>74388.19365</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>331995.5445000001</v>
+        <v>324588.6731999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>43551.09645</v>
+        <v>22154.51785</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>20196.13335</v>
+        <v>16550.77123</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>17517.93315</v>
+        <v>16289.00878</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>182602.51518</v>
+        <v>117759.02595</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>370822.53326</v>
+        <v>368241.25413</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>35519.12220000001</v>
+        <v>34678.55277</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>140739.96535</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>85494.45328999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>105157.066</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>4093624.87907</v>
+        <v>3500672.72421</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>4368637.48694</v>
+        <v>3771396.547309999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>4979024.29768</v>
+        <v>4365513.937799999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3764215.33354</v>
+        <v>3205430.41641</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>5549930.17704</v>
+        <v>4741340.172590001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>11086225.4337</v>
+        <v>9910530.301550001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>24695085.23992999</v>
+        <v>23948132.23979</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>18216878.10325</v>
+        <v>16617394.58255</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>27224586.51896</v>
+        <v>25297397.23144</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>97904870.63691001</v>
+        <v>93859367.36477</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>51365244.10967</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>49149201.22389998</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>75667238.617</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>1787.87893</v>
+        <v>1773.25509</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>4467.478770000001</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>988.3102299999999</v>
+        <v>987.2968300000001</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>3673.30545</v>
@@ -2057,16 +2103,16 @@
         <v>1082.48819</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>1059.72956</v>
+        <v>1049.50544</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>2515.8683</v>
+        <v>2641.95873</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>3715.60247</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>6222.1504</v>
+        <v>6174.172979999999</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>8454.410739999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>15297.39156</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1104.591</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2099,7 +2150,7 @@
         <v>3038.07394</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>0</v>
@@ -2113,284 +2164,324 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>748.215</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>531622.4286900001</v>
+        <v>406169.8407</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>524992.7625599999</v>
+        <v>457417.07747</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>831218.92344</v>
+        <v>782048.0913599998</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1333313.52655</v>
+        <v>1276370.36576</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1139914.41631</v>
+        <v>1098599.85984</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1362809.99849</v>
+        <v>1250044.31633</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1915515.18764</v>
+        <v>1928371.0193</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2707366.60575</v>
+        <v>2626834.05184</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2840523.64001</v>
+        <v>2765853.78135</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>4776351.603730001</v>
+        <v>3851230.61614</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>6674611.906529999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>6456683.77057</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>5659295.018</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>4223675.83257</v>
+        <v>3770640.21536</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3985309.23039</v>
+        <v>3498919.29875</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>5224982.03401</v>
+        <v>4512274.995080001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3220891.1766</v>
+        <v>2796340.4227</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>7089613.063339999</v>
+        <v>6034341.791990001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>10471634.11765</v>
+        <v>9272578.58086</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>27490775.04709001</v>
+        <v>26599584.11411001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>24483720.25221</v>
+        <v>22227098.57266</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>35428665.56437001</v>
+        <v>33174301.03915</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>109780175.73163</v>
+        <v>104841052.56736</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>58873792.60052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>55970015.53506</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>99221867.487</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>21095.02448</v>
+        <v>16476.19278</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>83878.65531999999</v>
+        <v>78840.82414</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>44180.62507</v>
+        <v>39327.3965</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>50037.46946999999</v>
+        <v>45204.90102</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>63824.58021000001</v>
+        <v>53186.63228000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>71222.01226</v>
+        <v>64830.79683999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>241465.35047</v>
+        <v>77215.43342999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>136602.0568</v>
+        <v>130334.14368</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>247681.09059</v>
+        <v>240980.91694</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>253511.21109</v>
+        <v>248527.53941</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>291996.0125000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>275327.63988</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>169748.558</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>239408.13428</v>
+        <v>234660.65645</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>131614.11857</v>
+        <v>127461.97169</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>198150.01908</v>
+        <v>194998.0383</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>121937.90287</v>
+        <v>117682.79947</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>108611.57079</v>
+        <v>106307.21845</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>138097.86818</v>
+        <v>122718.33278</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1003179.47312</v>
+        <v>995037.0883300001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>381365.53139</v>
+        <v>364778.5885299999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2362709.83628</v>
+        <v>2339323.9508</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1362057.55135</v>
+        <v>1338402.69846</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>903916.9090200001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>883343.2472700001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1437279.935</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>44650.11419</v>
+        <v>40834.72403</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>2069.36706</v>
+        <v>602.82724</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>4652.43584</v>
+        <v>3638.34241</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>15534.56196</v>
+        <v>12592.71279</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>6853.99594</v>
+        <v>1099.85248</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>25831.68238</v>
+        <v>24766.68885</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>46477.45559000001</v>
+        <v>46452.66099</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>2495.97985</v>
+        <v>651.75967</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>30671.75594</v>
+        <v>30007.91976</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>10636.31553</v>
+        <v>10317.11234</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>55547.51292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>5886.08425</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>26052.183</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>3770678.21616</v>
+        <v>3350114.69886</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>3610292.19659</v>
+        <v>3162638.34229</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>4773287.70292</v>
+        <v>4126143.05047</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2411354.62319</v>
+        <v>2024154.37835</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>6686135.92773</v>
+        <v>5674380.52506</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>9884645.24377</v>
+        <v>8765064.02454</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>24593167.33619</v>
+        <v>23936767.46027</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>22142144.05241</v>
+        <v>19963241.67354</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>32019932.03079</v>
+        <v>29843529.10817</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>106973042.53964</v>
+        <v>102068455.80446</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>55676732.86058</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>53002136.73270001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>93435859.205</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>1359.80071</v>
+        <v>1309.74584</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>2325.73622</v>
+        <v>2324.81085</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>45.09305000000001</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>3700.81602</v>
+        <v>3697.72884</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>572.5548700000001</v>
+        <v>562.318</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>583.8698300000001</v>
+        <v>583.86983</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>369.30025</v>
+        <v>440.6248099999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>4068.1004</v>
+        <v>3964.216060000001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>2558.68091</v>
+        <v>928.9160499999999</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>498.6255</v>
+        <v>477.03382</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>453.8675</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1293.648</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1158.936</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>146484.54275</v>
+        <v>127244.1974</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>155103.11584</v>
+        <v>127024.48175</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>204666.15805</v>
+        <v>148123.07435</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>618325.8030899999</v>
+        <v>593007.9022299999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>223614.4338</v>
+        <v>198805.2457200001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>351253.44123</v>
+        <v>294614.8680200001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1604298.59109</v>
+        <v>1541853.3059</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1815429.37861</v>
+        <v>1762513.03843</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>761987.1329399999</v>
+        <v>716405.19051</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1180429.4799</v>
+        <v>1174872.37025</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1945145.438</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1802867.96346</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>4150475.022</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1673792.38336</v>
+        <v>1384247.92377</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1468992.56605</v>
+        <v>1180564.38824</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>3915792.74037</v>
+        <v>3404467.230140001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2024856.25587</v>
+        <v>1750801.8846</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>4417047.2112</v>
+        <v>3870903.96612</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3112465.32093</v>
+        <v>2707106.27098</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>5652710.804439999</v>
+        <v>4849777.01003</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>5699307.092009999</v>
+        <v>4969652.032990001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>9427653.087060001</v>
+        <v>8618877.372100001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>21022025.66365</v>
+        <v>19738326.57878</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>20694352.03306</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>18686036.06561</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>40029410.169</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>738593.7046999999</v>
+        <v>639387.63506</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>593470.7485</v>
+        <v>499016.96117</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1808799.51018</v>
+        <v>1640019.83628</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1154427.83006</v>
+        <v>1002998.95258</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1565837.021</v>
+        <v>1350253.556</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1741314.08438</v>
+        <v>1520467.42702</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2582497.9964</v>
+        <v>2298337.45848</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>3072665.75591</v>
+        <v>2720542.6426</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>6389345.22258</v>
+        <v>5863759.69257</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>14700526.24334</v>
+        <v>13803015.67226</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>15202373.11118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>13793185.61697</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>28733263.877</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>935198.6786599999</v>
+        <v>744860.28871</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>875521.8175499999</v>
+        <v>681547.42707</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>2106993.23019</v>
+        <v>1764447.39386</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>870428.42581</v>
+        <v>747802.9320200001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2851210.1902</v>
+        <v>2520650.41012</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1371151.23655</v>
+        <v>1186638.84396</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3070212.80804</v>
+        <v>2551439.55155</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2626641.3361</v>
+        <v>2249109.39039</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3038307.86448</v>
+        <v>2755117.67953</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>6321499.42031</v>
+        <v>5935310.906520001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>5491978.921880001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4892850.44864</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>11296146.292</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>5305360.027199999</v>
+        <v>5089640.26376</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1588145.10455</v>
+        <v>1576650.5906</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-3221929.96961</v>
+        <v>-2843642.599729999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3502310.73257</v>
+        <v>3262611.46762</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-690682.6063799995</v>
+        <v>-616793.35721</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>2917830.3692</v>
+        <v>3005133.731270001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3948000.29222</v>
+        <v>5658912.434649999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2510954.86842</v>
+        <v>3371222.55848</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-2531860.562009999</v>
+        <v>-2389121.62712</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-15647165.04614</v>
+        <v>-15423594.84156</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1980937.55945</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4137991.240819999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-40350448.503</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2727569.94343</v>
+        <v>2651213.4293</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2171509.792020001</v>
+        <v>2111983.31088</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2134596.75092</v>
+        <v>1928713.80783</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1547956.82459</v>
+        <v>1364384.92291</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3474680.48998</v>
+        <v>3060530.71325</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>2502307.05259</v>
+        <v>2311744.96894</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>2178669.2746</v>
+        <v>1874541.2219</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3771654.66746</v>
+        <v>3266535.20531</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>11849909.68235</v>
+        <v>11182331.28696</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>8858380.132199999</v>
+        <v>8475126.211520001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>6660792.649759999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>6244909.53041</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>7889987.102</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>186121.1752</v>
+        <v>184853.77806</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>251037.33028</v>
+        <v>248802.87164</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>544567.7058199999</v>
+        <v>523758.1762100001</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>138299.14888</v>
+        <v>135681.94393</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>213459.11037</v>
+        <v>204959.56353</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>250457.78691</v>
+        <v>247565.07156</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>328975.43601</v>
+        <v>328022.69333</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>341395.3432000001</v>
+        <v>320106.58352</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>463518.8252800001</v>
+        <v>460487.03743</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>4648912.65552</v>
+        <v>4637434.970880001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>191776.59967</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>185205.25866</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>715714.844</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2541448.768230001</v>
+        <v>2466359.651240001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1920472.46174</v>
+        <v>1863180.43924</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1590029.0451</v>
+        <v>1404955.63162</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1409657.67571</v>
+        <v>1228702.97898</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3261221.37961</v>
+        <v>2855571.14972</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>2251849.26568</v>
+        <v>2064179.89738</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1849693.83859</v>
+        <v>1546518.52857</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3430259.32426</v>
+        <v>2946428.62179</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>11386390.85707</v>
+        <v>10721844.24953</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>4209467.476679999</v>
+        <v>3837691.24064</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>6469016.050089999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>6059704.27175</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>7174272.258</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>1433646.4127</v>
+        <v>1369106.13947</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2209811.96335</v>
+        <v>2063675.3726</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1382077.34707</v>
+        <v>1103182.35236</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>980612.46377</v>
+        <v>891679.1439900001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1342176.20675</v>
+        <v>1185801.19968</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1598257.70722</v>
+        <v>1397195.73235</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>3061603.441039999</v>
+        <v>2914200.78439</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>3002090.163660001</v>
+        <v>2627809.88915</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>2422409.557560001</v>
+        <v>2010380.95941</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2801303.04381</v>
+        <v>2398654.87776</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3890652.60549</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3515193.2288</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>7049471.086</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>70053.59297</v>
+        <v>63729.18016</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>80090.80283</v>
+        <v>69426.96837</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>93813.83242000002</v>
+        <v>79644.89605000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>99922.62847</v>
+        <v>89176.69396999999</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>129988.19631</v>
+        <v>116361.0138</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>138078.34305</v>
+        <v>119362.06188</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>146240.33849</v>
+        <v>112302.1872</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>178331.56392</v>
+        <v>144586.46978</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>157351.10689</v>
+        <v>137757.10051</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>165210.97978</v>
+        <v>151226.60645</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>236880.28568</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>213656.13975</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>130897.896</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>194231.24708</v>
+        <v>175635.31023</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1471260.63335</v>
+        <v>1455918.24077</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>265004.60116</v>
+        <v>256594.81496</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>210918.56689</v>
+        <v>202163.30452</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>438642.12678</v>
+        <v>421832.77394</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>788752.7899899998</v>
+        <v>777729.2143500001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1373249.16763</v>
+        <v>1307608.40529</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>542598.7071700001</v>
+        <v>519979.2703</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>677058.96553</v>
+        <v>600194.2739299999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>329584.1226</v>
+        <v>289083.55353</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>548906.1759000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>426980.36249</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>855424.4300000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1169361.57265</v>
+        <v>1129741.64908</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>658460.5271699999</v>
+        <v>538330.1634600001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1023258.91349</v>
+        <v>766942.64135</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>669771.26841</v>
+        <v>600339.1455</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>773545.8836600001</v>
+        <v>647607.41194</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>671426.57418</v>
+        <v>500104.45612</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1542113.93492</v>
+        <v>1494290.1919</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2281159.89257</v>
+        <v>1963244.14907</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1587999.48514</v>
+        <v>1272429.58497</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2306507.94143</v>
+        <v>1958344.71778</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>3104866.14391</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2874556.72656</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>6063148.76</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>6599283.55793</v>
+        <v>6371747.553590001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1549842.93322</v>
+        <v>1624958.52888</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2469410.565759999</v>
+        <v>-2018111.14426</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>4069655.09339</v>
+        <v>3735317.24654</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1441821.67685</v>
+        <v>1257936.15636</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3821879.71457</v>
+        <v>3919682.96786</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3065066.12578</v>
+        <v>4619252.872160001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>3280519.372220002</v>
+        <v>4009947.874640001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>6895639.562779999</v>
+        <v>6782828.700429999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-9590087.95775</v>
+        <v>-9347123.507800002</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4751077.603719999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>6867707.542430001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-39509932.487</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>433912.5192</v>
+        <v>420380.02306</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>416018.9906600001</v>
+        <v>403158.36628</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>405747.94951</v>
+        <v>382810.88966</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>769898.53483</v>
+        <v>743617.1440900001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>752763.3590299999</v>
+        <v>711664.23064</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>853766.83154</v>
+        <v>850645.0432399999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1079856.06236</v>
+        <v>1114997.79064</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1031436.03307</v>
+        <v>962389.9250100001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1527444.05858</v>
+        <v>1476297.34023</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1930064.38974</v>
+        <v>1830938.68684</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2634828.08649</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2559874.81693</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2219105.778</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>6165371.03873</v>
+        <v>5951367.53053</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1133823.94256</v>
+        <v>1221800.1626</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-2875158.51527</v>
+        <v>-2400922.033920001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>3299756.55856</v>
+        <v>2991700.10245</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>689058.3178199999</v>
+        <v>546271.9257200002</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2968112.88303</v>
+        <v>3069037.92462</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1985210.06342</v>
+        <v>3504255.08152</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>2249083.33915</v>
+        <v>3047557.94963</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>5368195.504199999</v>
+        <v>5306531.360200001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-11520152.34749</v>
+        <v>-11178062.19464</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2116249.51723</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4307832.725500002</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-41729038.265</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>407</v>
+        <v>213</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>452</v>
+        <v>243</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>529</v>
+        <v>301</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>584</v>
+        <v>336</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>477</v>
+        <v>280</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>502</v>
+        <v>313</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>558</v>
+        <v>347</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>629</v>
+        <v>392</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>728</v>
+        <v>451</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>386</v>
+        <v>279</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>272</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>